--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2976.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2976.xlsx
@@ -354,7 +354,7 @@
         <v>2.520647275490199</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.25024837935112</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2976.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2976.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.197954896153689</v>
+        <v>1.715275406837463</v>
       </c>
       <c r="B1">
-        <v>2.520647275490199</v>
+        <v>2.761646509170532</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.994082450866699</v>
       </c>
       <c r="D1">
-        <v>2.25024837935112</v>
+        <v>3.375754356384277</v>
       </c>
       <c r="E1">
-        <v>1.189027673856837</v>
+        <v>2.062291145324707</v>
       </c>
     </row>
   </sheetData>
